--- a/backend/Final_Invoice.xlsx
+++ b/backend/Final_Invoice.xlsx
@@ -765,12 +765,12 @@
     <row r="5">
       <c r="A5" s="17" t="inlineStr">
         <is>
-          <t>"Housefull 5"</t>
+          <t>"Aap Jaisa Koi"</t>
         </is>
       </c>
       <c r="B5" s="17" t="inlineStr">
         <is>
-          <t>Right-E1</t>
+          <t>Right-B3, Right-B2</t>
         </is>
       </c>
       <c r="C5" s="17" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="D5" s="17" t="inlineStr">
         <is>
-          <t>"11:30"</t>
+          <t>"15:30"</t>
         </is>
       </c>
       <c r="E5" s="17" t="inlineStr">
         <is>
-          <t>CV0FS92D0D2</t>
+          <t>D4G89OYZZJH</t>
         </is>
       </c>
       <c r="F5" s="2" t="n"/>
